--- a/Threads.xlsx
+++ b/Threads.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\MyFiles\Studia\Sem6\NET_Java\Lab3_Watki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C22A7D-F80B-4603-B607-E071B64A8321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62B1C06-CFC6-44F0-AED8-19142D56146C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="13">
   <si>
     <t>100x100</t>
   </si>
@@ -44,17 +55,57 @@
   <si>
     <t>paralers</t>
   </si>
+  <si>
+    <t>srednia:</t>
+  </si>
+  <si>
+    <t>próba:</t>
+  </si>
+  <si>
+    <t>suma:</t>
+  </si>
+  <si>
+    <t>Paralell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thread </t>
+  </si>
+  <si>
+    <t>seed:</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -66,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -74,12 +125,397 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -360,15 +796,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>1</v>
       </c>
@@ -388,27 +830,719 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:18" ht="21" x14ac:dyDescent="0.4">
+      <c r="A7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="22"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
+        <v>3</v>
+      </c>
+      <c r="B8" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18">
+        <v>4</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18">
+        <v>8</v>
+      </c>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="E10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="E11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>3</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="9">
+        <f>SUM(B10:B12)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" ref="C13:Q13" si="0">SUM(C10:C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4">
+        <f>B13/3</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" ref="C14:Q14" si="1">C13/3</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:18" ht="21" x14ac:dyDescent="0.4">
+      <c r="A19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="22"/>
+    </row>
+    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
+        <v>3</v>
+      </c>
+      <c r="B20" s="18">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18">
+        <v>2</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18">
+        <v>4</v>
+      </c>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18">
+        <v>8</v>
+      </c>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="19"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>1</v>
+      </c>
+      <c r="B22" s="25">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>64</v>
+      </c>
+      <c r="D22">
+        <v>992</v>
+      </c>
+      <c r="E22" s="13">
+        <v>9601</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>34</v>
+      </c>
+      <c r="H22">
+        <v>516</v>
+      </c>
+      <c r="I22" s="13">
+        <v>5088</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>19</v>
+      </c>
+      <c r="L22">
+        <v>368</v>
+      </c>
+      <c r="M22" s="13">
+        <v>3004</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>13</v>
+      </c>
+      <c r="P22">
+        <v>353</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>58</v>
+      </c>
+      <c r="D23">
+        <v>968</v>
+      </c>
+      <c r="E23" s="14">
+        <v>9761</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>35</v>
+      </c>
+      <c r="H23">
+        <v>532</v>
+      </c>
+      <c r="I23" s="14">
+        <v>4855</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>25</v>
+      </c>
+      <c r="L23">
+        <v>297</v>
+      </c>
+      <c r="M23" s="14">
+        <v>3135</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>15</v>
+      </c>
+      <c r="P23">
+        <v>238</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>3</v>
+      </c>
+      <c r="B24" s="26">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6">
+        <v>54</v>
+      </c>
+      <c r="D24" s="6">
+        <v>985</v>
+      </c>
+      <c r="E24" s="15">
+        <v>9666</v>
+      </c>
+      <c r="F24" s="6">
+        <v>3</v>
+      </c>
+      <c r="G24" s="6">
+        <v>28</v>
+      </c>
+      <c r="H24" s="6">
+        <v>505</v>
+      </c>
+      <c r="I24" s="15">
+        <v>4932</v>
+      </c>
+      <c r="J24" s="6">
+        <v>5</v>
+      </c>
+      <c r="K24" s="6">
+        <v>21</v>
+      </c>
+      <c r="L24" s="6">
+        <v>370</v>
+      </c>
+      <c r="M24" s="15">
+        <v>2974</v>
+      </c>
+      <c r="N24" s="6">
+        <v>3</v>
+      </c>
+      <c r="O24" s="6">
+        <v>22</v>
+      </c>
+      <c r="P24" s="6">
+        <v>292</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="9">
+        <f>SUM(B22:B24)</f>
+        <v>22</v>
+      </c>
+      <c r="C25" s="9">
+        <f t="shared" ref="C25" si="2">SUM(C22:C24)</f>
+        <v>176</v>
+      </c>
+      <c r="D25" s="9">
+        <f t="shared" ref="D25" si="3">SUM(D22:D24)</f>
+        <v>2945</v>
+      </c>
+      <c r="E25" s="9">
+        <f>SUM(E22:E24)</f>
+        <v>29028</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" ref="F25" si="4">SUM(F22:F24)</f>
+        <v>11</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" ref="G25" si="5">SUM(G22:G24)</f>
+        <v>97</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" ref="H25" si="6">SUM(H22:H24)</f>
+        <v>1553</v>
+      </c>
+      <c r="I25" s="23">
+        <f>SUM(I22:I24)</f>
+        <v>14875</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" ref="J25" si="7">SUM(J22:J24)</f>
+        <v>10</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" ref="K25" si="8">SUM(K22:K24)</f>
+        <v>65</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" ref="L25" si="9">SUM(L22:L24)</f>
+        <v>1035</v>
+      </c>
+      <c r="M25" s="23">
+        <f t="shared" ref="M25" si="10">SUM(M22:M24)</f>
+        <v>9113</v>
+      </c>
+      <c r="N25" s="9">
+        <f t="shared" ref="N25" si="11">SUM(N22:N24)</f>
+        <v>9</v>
+      </c>
+      <c r="O25" s="9">
+        <f t="shared" ref="O25" si="12">SUM(O22:O24)</f>
+        <v>50</v>
+      </c>
+      <c r="P25" s="9">
+        <f t="shared" ref="P25" si="13">SUM(P22:P24)</f>
+        <v>883</v>
+      </c>
+      <c r="Q25" s="17">
+        <f t="shared" ref="Q25" si="14">SUM(Q22:Q24)</f>
+        <v>7559</v>
+      </c>
+      <c r="R25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="27">
+        <f>B25/3</f>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" ref="C26" si="15">C25/3</f>
+        <v>58.666666666666664</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" ref="D26" si="16">D25/3</f>
+        <v>981.66666666666663</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" ref="E26" si="17">E25/3</f>
+        <v>9676</v>
+      </c>
+      <c r="F26" s="31">
+        <f t="shared" ref="F26" si="18">F25/3</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" ref="G26" si="19">G25/3</f>
+        <v>32.333333333333336</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" ref="H26" si="20">H25/3</f>
+        <v>517.66666666666663</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" ref="I26" si="21">I25/3</f>
+        <v>4958.333333333333</v>
+      </c>
+      <c r="J26" s="31">
+        <f t="shared" ref="J26" si="22">J25/3</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" ref="K26" si="23">K25/3</f>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" ref="L26" si="24">L25/3</f>
+        <v>345</v>
+      </c>
+      <c r="M26" s="32">
+        <f t="shared" ref="M26" si="25">M25/3</f>
+        <v>3037.6666666666665</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" ref="N26" si="26">N25/3</f>
+        <v>3</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" ref="O26" si="27">O25/3</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" ref="P26" si="28">P25/3</f>
+        <v>294.33333333333331</v>
+      </c>
+      <c r="Q26" s="5">
+        <f t="shared" ref="Q26" si="29">Q25/3</f>
+        <v>2519.6666666666665</v>
+      </c>
+      <c r="R26" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="B19:Q19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>